--- a/intro_to_programming/intro_to_programming.xlsx
+++ b/intro_to_programming/intro_to_programming.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="japan_spending" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="clean_data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="KPop_draft_roster" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">clean_data!$A$1:$H$1000</definedName>
@@ -515,7 +516,7 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -662,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26697,8 +26698,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26805,4 +26806,47 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B5:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <f aca="false">B5*B6</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>